--- a/Documentation/Testing/Collectable Testing Tables.xlsx
+++ b/Documentation/Testing/Collectable Testing Tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28421"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14580" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="25600" windowHeight="16000" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="82">
   <si>
     <t>Conditions</t>
   </si>
@@ -3119,8 +3119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="I79" sqref="I79"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4128,12 +4128,24 @@
       </c>
       <c r="D41" s="31"/>
       <c r="E41" s="31"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="32"/>
-      <c r="I41" s="32"/>
-      <c r="J41" s="32"/>
-      <c r="K41" s="33"/>
+      <c r="F41" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="G41" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="H41" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="I41" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="J41" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="K41" s="33" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="43" spans="2:14" ht="40" customHeight="1">
       <c r="B43" s="4" t="s">
@@ -4588,12 +4600,24 @@
       </c>
       <c r="D59" s="31"/>
       <c r="E59" s="31"/>
-      <c r="F59" s="32"/>
-      <c r="G59" s="32"/>
-      <c r="H59" s="32"/>
-      <c r="I59" s="32"/>
-      <c r="J59" s="32"/>
-      <c r="K59" s="33"/>
+      <c r="F59" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="G59" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="H59" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="I59" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="J59" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="K59" s="33" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="61" spans="2:14" ht="40" customHeight="1">
       <c r="B61" s="4" t="s">
@@ -4959,11 +4983,21 @@
       </c>
       <c r="D75" s="31"/>
       <c r="E75" s="31"/>
-      <c r="F75" s="32"/>
-      <c r="G75" s="32"/>
-      <c r="H75" s="32"/>
-      <c r="I75" s="32"/>
-      <c r="J75" s="33"/>
+      <c r="F75" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="G75" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="H75" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="I75" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="J75" s="33" t="s">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Documentation/Testing/Collectable Testing Tables.xlsx
+++ b/Documentation/Testing/Collectable Testing Tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28421"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="25600" windowHeight="16000" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14580" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="82">
   <si>
     <t>Conditions</t>
   </si>
@@ -159,18 +159,6 @@
     <t>Rifle Perks</t>
   </si>
   <si>
-    <t>Flashlight  Selection Works</t>
-  </si>
-  <si>
-    <t>Pistol Selection Works</t>
-  </si>
-  <si>
-    <t>Rifle Selection Works</t>
-  </si>
-  <si>
-    <t>Health Selection Works</t>
-  </si>
-  <si>
     <t>Decharge -= 0.25</t>
   </si>
   <si>
@@ -268,6 +256,18 @@
   </si>
   <si>
     <t>Health Pickup += 15</t>
+  </si>
+  <si>
+    <t>Flashlight  Perks Works</t>
+  </si>
+  <si>
+    <t>Pistol Perks Works</t>
+  </si>
+  <si>
+    <t>Rifle Perks Works</t>
+  </si>
+  <si>
+    <t>Health Perks Works</t>
   </si>
 </sst>
 </file>
@@ -942,8 +942,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="503">
+  <cellStyleXfs count="517">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1650,7 +1664,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="503">
+  <cellStyles count="517">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1902,6 +1916,13 @@
     <cellStyle name="Followed Hyperlink" xfId="498" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="500" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="502" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="504" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="506" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="508" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="510" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="512" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="514" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="516" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2153,6 +2174,13 @@
     <cellStyle name="Hyperlink" xfId="497" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="499" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="501" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="503" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="505" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="507" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="509" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="511" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="513" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="515" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2485,7 +2513,7 @@
   <dimension ref="B1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B2" sqref="B2:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2707,7 +2735,7 @@
   <dimension ref="B1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2754,7 +2782,9 @@
       <c r="F3" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="36"/>
+      <c r="G3" s="36" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="39">
@@ -2772,7 +2802,9 @@
       <c r="F4" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="36"/>
+      <c r="G4" s="36" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="39">
@@ -2790,7 +2822,9 @@
       <c r="F5" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="36"/>
+      <c r="G5" s="36" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="39">
@@ -2808,7 +2842,9 @@
       <c r="F6" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="36"/>
+      <c r="G6" s="36" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="39">
@@ -2826,7 +2862,9 @@
       <c r="F7" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="36"/>
+      <c r="G7" s="36" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="39">
@@ -2844,7 +2882,9 @@
       <c r="F8" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="36"/>
+      <c r="G8" s="36" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="39">
@@ -2862,7 +2902,9 @@
       <c r="F9" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="36"/>
+      <c r="G9" s="36" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="39">
@@ -2880,7 +2922,9 @@
       <c r="F10" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="36"/>
+      <c r="G10" s="36" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="39">
@@ -2898,7 +2942,9 @@
       <c r="F11" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="36"/>
+      <c r="G11" s="36" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="12" spans="2:7" ht="16" thickBot="1">
       <c r="B12" s="40">
@@ -2916,7 +2962,9 @@
       <c r="F12" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="37"/>
+      <c r="G12" s="37" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="14" spans="2:7">
       <c r="D14" s="34"/>
@@ -3119,8 +3167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3140,16 +3188,16 @@
         <v>18</v>
       </c>
       <c r="D2" s="47" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="E2" s="47" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="F2" s="47" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="G2" s="47" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="2:14" ht="16" thickBot="1">
@@ -3244,7 +3292,7 @@
       <c r="B10" s="2"/>
       <c r="C10" s="17"/>
       <c r="D10" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E10" s="63" t="s">
         <v>7</v>
@@ -3278,7 +3326,7 @@
       <c r="B11" s="2"/>
       <c r="C11" s="17"/>
       <c r="D11" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E11" s="64" t="s">
         <v>8</v>
@@ -3344,7 +3392,7 @@
       <c r="B13" s="2"/>
       <c r="C13" s="17"/>
       <c r="D13" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E13" s="63" t="s">
         <v>22</v>
@@ -3457,7 +3505,7 @@
         <v>2</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E17" s="63" t="s">
         <v>7</v>
@@ -3490,7 +3538,7 @@
     <row r="18" spans="2:14">
       <c r="C18" s="17"/>
       <c r="D18" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E18" s="64" t="s">
         <v>8</v>
@@ -3554,7 +3602,7 @@
     <row r="20" spans="2:14">
       <c r="C20" s="17"/>
       <c r="D20" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E20" s="63" t="s">
         <v>22</v>
@@ -3581,7 +3629,7 @@
         <v>22</v>
       </c>
       <c r="N20" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="2:14">
@@ -3612,7 +3660,7 @@
         <v>25</v>
       </c>
       <c r="N21" s="9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="2:14" ht="16" thickBot="1">
@@ -3653,22 +3701,22 @@
       <c r="D23" s="31"/>
       <c r="E23" s="31"/>
       <c r="F23" s="32" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G23" s="32" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H23" s="32" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I23" s="32" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J23" s="32" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="K23" s="33" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="2:14" ht="40" customHeight="1">
@@ -3724,7 +3772,7 @@
       <c r="B28" s="2"/>
       <c r="C28" s="17"/>
       <c r="D28" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E28" s="63" t="s">
         <v>22</v>
@@ -3822,7 +3870,7 @@
       <c r="B31" s="2"/>
       <c r="C31" s="17"/>
       <c r="D31" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E31" s="63" t="s">
         <v>34</v>
@@ -3935,7 +3983,7 @@
         <v>2</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E35" s="63" t="s">
         <v>22</v>
@@ -3962,7 +4010,7 @@
         <v>22</v>
       </c>
       <c r="N35" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="2:14" ht="16" thickBot="1">
@@ -3993,7 +4041,7 @@
         <v>25</v>
       </c>
       <c r="N36" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="2:14" ht="16" thickBot="1">
@@ -4024,13 +4072,13 @@
         <v>27</v>
       </c>
       <c r="N37" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="2:14">
       <c r="C38" s="17"/>
       <c r="D38" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E38" s="63" t="s">
         <v>34</v>
@@ -4129,22 +4177,22 @@
       <c r="D41" s="31"/>
       <c r="E41" s="31"/>
       <c r="F41" s="32" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G41" s="32" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H41" s="32" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I41" s="32" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J41" s="32" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="K41" s="33" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="2:14" ht="40" customHeight="1">
@@ -4200,7 +4248,7 @@
       <c r="B46" s="2"/>
       <c r="C46" s="17"/>
       <c r="D46" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E46" s="63" t="s">
         <v>22</v>
@@ -4266,10 +4314,10 @@
       <c r="B48" s="2"/>
       <c r="C48" s="17"/>
       <c r="D48" s="8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E48" s="63" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F48" s="6" t="s">
         <v>4</v>
@@ -4290,10 +4338,10 @@
         <v>4</v>
       </c>
       <c r="M48" s="22" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="N48" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="2:14" ht="16" thickBot="1">
@@ -4301,7 +4349,7 @@
       <c r="C49" s="17"/>
       <c r="D49" s="66"/>
       <c r="E49" s="65" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F49" s="10" t="s">
         <v>4</v>
@@ -4320,17 +4368,17 @@
         <v>4</v>
       </c>
       <c r="M49" s="24" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="N49" s="25" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="2:14">
       <c r="B50" s="2"/>
       <c r="C50" s="17"/>
       <c r="D50" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E50" s="68" t="s">
         <v>35</v>
@@ -4409,7 +4457,7 @@
         <v>2</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E53" s="63" t="s">
         <v>22</v>
@@ -4436,7 +4484,7 @@
         <v>22</v>
       </c>
       <c r="N53" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="2:14" ht="16" thickBot="1">
@@ -4467,16 +4515,16 @@
         <v>25</v>
       </c>
       <c r="N54" s="29" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="2:14">
       <c r="C55" s="17"/>
       <c r="D55" s="8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E55" s="63" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F55" s="6" t="s">
         <v>4</v>
@@ -4497,17 +4545,17 @@
         <v>4</v>
       </c>
       <c r="M55" s="22" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="N55" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" spans="2:14" ht="16" thickBot="1">
       <c r="C56" s="17"/>
       <c r="D56" s="66"/>
       <c r="E56" s="65" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F56" s="10" t="s">
         <v>4</v>
@@ -4526,16 +4574,16 @@
         <v>4</v>
       </c>
       <c r="M56" s="24" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="N56" s="29" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="2:14">
       <c r="C57" s="17"/>
       <c r="D57" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E57" s="68" t="s">
         <v>35</v>
@@ -4562,7 +4610,7 @@
         <v>34</v>
       </c>
       <c r="N57" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="2:14" ht="16" thickBot="1">
@@ -4591,7 +4639,7 @@
         <v>35</v>
       </c>
       <c r="N58" s="25" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="2:14" ht="16" thickBot="1">
@@ -4601,27 +4649,27 @@
       <c r="D59" s="31"/>
       <c r="E59" s="31"/>
       <c r="F59" s="32" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G59" s="32" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H59" s="32" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I59" s="32" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J59" s="32" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="K59" s="33" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="61" spans="2:14" ht="40" customHeight="1">
       <c r="B61" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -4669,10 +4717,10 @@
       <c r="B64" s="2"/>
       <c r="C64" s="17"/>
       <c r="D64" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E64" s="63" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F64" s="6" t="s">
         <v>3</v>
@@ -4690,20 +4738,20 @@
         <v>4</v>
       </c>
       <c r="M64" s="22" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="N64" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="65" spans="2:14">
       <c r="B65" s="2"/>
       <c r="C65" s="17"/>
       <c r="D65" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E65" s="64" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F65" s="60" t="s">
         <v>4</v>
@@ -4721,10 +4769,10 @@
         <v>4</v>
       </c>
       <c r="M65" s="23" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="N65" s="9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="2:14" ht="16" thickBot="1">
@@ -4732,7 +4780,7 @@
       <c r="C66" s="17"/>
       <c r="D66" s="66"/>
       <c r="E66" s="65" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F66" s="10" t="s">
         <v>4</v>
@@ -4750,20 +4798,20 @@
         <v>4</v>
       </c>
       <c r="M66" s="57" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="N66" s="29" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="67" spans="2:14">
       <c r="B67" s="2"/>
       <c r="C67" s="17"/>
       <c r="D67" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E67" s="63" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F67" s="60" t="s">
         <v>4</v>
@@ -4781,20 +4829,20 @@
         <v>3</v>
       </c>
       <c r="M67" s="22" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="N67" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="68" spans="2:14" ht="16" thickBot="1">
       <c r="B68" s="2"/>
       <c r="C68" s="17"/>
       <c r="D68" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E68" s="64" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F68" s="10" t="s">
         <v>4</v>
@@ -4812,10 +4860,10 @@
         <v>3</v>
       </c>
       <c r="M68" s="24" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="N68" s="25" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="69" spans="2:14" ht="16" thickBot="1">
@@ -4836,11 +4884,11 @@
         <v>2</v>
       </c>
       <c r="D70" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E70" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="E70" s="63" t="s">
-        <v>68</v>
-      </c>
       <c r="F70" s="6" t="s">
         <v>3</v>
       </c>
@@ -4857,17 +4905,17 @@
         <v>4</v>
       </c>
       <c r="M70" s="22" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="N70" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="71" spans="2:14">
       <c r="C71" s="17"/>
       <c r="D71" s="8"/>
       <c r="E71" s="64" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F71" s="60" t="s">
         <v>4</v>
@@ -4885,17 +4933,17 @@
         <v>4</v>
       </c>
       <c r="M71" s="23" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="N71" s="9" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="72" spans="2:14" ht="16" thickBot="1">
       <c r="C72" s="17"/>
       <c r="D72" s="66"/>
       <c r="E72" s="65" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F72" s="10" t="s">
         <v>4</v>
@@ -4913,19 +4961,19 @@
         <v>4</v>
       </c>
       <c r="M72" s="57" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="N72" s="29" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="73" spans="2:14">
       <c r="C73" s="17"/>
       <c r="D73" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E73" s="63" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F73" s="60" t="s">
         <v>4</v>
@@ -4943,17 +4991,17 @@
         <v>4</v>
       </c>
       <c r="M73" s="22" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="N73" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="74" spans="2:14" ht="16" thickBot="1">
       <c r="C74" s="17"/>
       <c r="D74" s="8"/>
       <c r="E74" s="64" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F74" s="10" t="s">
         <v>4</v>
@@ -4971,10 +5019,10 @@
         <v>3</v>
       </c>
       <c r="M74" s="24" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="N74" s="25" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="75" spans="2:14" ht="16" thickBot="1">
@@ -4984,19 +5032,19 @@
       <c r="D75" s="31"/>
       <c r="E75" s="31"/>
       <c r="F75" s="32" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G75" s="32" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H75" s="32" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I75" s="32" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J75" s="33" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
